--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>130.6320664732254</v>
+        <v>264.1328792516093</v>
       </c>
       <c r="R2">
-        <v>130.6320664732254</v>
+        <v>2377.195913264484</v>
       </c>
       <c r="S2">
-        <v>0.0003867613635594171</v>
+        <v>0.0006309070475387792</v>
       </c>
       <c r="T2">
-        <v>0.0003867613635594171</v>
+        <v>0.0006584784979334464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>1139.355908237078</v>
+        <v>1739.483070722428</v>
       </c>
       <c r="R3">
-        <v>1139.355908237078</v>
+        <v>15655.34763650185</v>
       </c>
       <c r="S3">
-        <v>0.003373282353606254</v>
+        <v>0.004154924337714726</v>
       </c>
       <c r="T3">
-        <v>0.003373282353606254</v>
+        <v>0.004336499881557191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>929.9753091719839</v>
+        <v>1460.836961510429</v>
       </c>
       <c r="R4">
-        <v>929.9753091719839</v>
+        <v>13147.53265359386</v>
       </c>
       <c r="S4">
-        <v>0.002753370809805473</v>
+        <v>0.003489351030183989</v>
       </c>
       <c r="T4">
-        <v>0.002753370809805473</v>
+        <v>0.003641840163430493</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>1027.180119640399</v>
+        <v>1503.883591831074</v>
       </c>
       <c r="R5">
-        <v>1027.180119640399</v>
+        <v>13534.95232647967</v>
       </c>
       <c r="S5">
-        <v>0.00304116435128638</v>
+        <v>0.0035921720894896</v>
       </c>
       <c r="T5">
-        <v>0.00304116435128638</v>
+        <v>0.003749154635430147</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>404.8661279539559</v>
+        <v>645.1985790441664</v>
       </c>
       <c r="R6">
-        <v>404.8661279539559</v>
+        <v>3871.191474264998</v>
       </c>
       <c r="S6">
-        <v>0.001198684059235852</v>
+        <v>0.0015411194991488</v>
       </c>
       <c r="T6">
-        <v>0.001198684059235852</v>
+        <v>0.001072312270504552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>10357.35014083201</v>
+        <v>15580.58709518092</v>
       </c>
       <c r="R7">
-        <v>10357.35014083201</v>
+        <v>140225.2838566283</v>
       </c>
       <c r="S7">
-        <v>0.03066492762059729</v>
+        <v>0.03721574622210351</v>
       </c>
       <c r="T7">
-        <v>0.03066492762059729</v>
+        <v>0.03884212225462069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>90335.46199819002</v>
+        <v>102608.0795422913</v>
       </c>
       <c r="R8">
-        <v>90335.46199819002</v>
+        <v>923472.7158806216</v>
       </c>
       <c r="S8">
-        <v>0.2674555138217223</v>
+        <v>0.2450893682796091</v>
       </c>
       <c r="T8">
-        <v>0.2674555138217223</v>
+        <v>0.2558000892743151</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>73734.42187257257</v>
+        <v>86171.39060900925</v>
       </c>
       <c r="R9">
-        <v>73734.42187257257</v>
+        <v>775542.5154810833</v>
       </c>
       <c r="S9">
-        <v>0.218304940851154</v>
+        <v>0.2058287396309056</v>
       </c>
       <c r="T9">
-        <v>0.218304940851154</v>
+        <v>0.2148237205978627</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>81441.44423373944</v>
+        <v>88710.61168124077</v>
       </c>
       <c r="R10">
-        <v>81441.44423373944</v>
+        <v>798395.505131167</v>
       </c>
       <c r="S10">
-        <v>0.2411230632146914</v>
+        <v>0.2118939158947201</v>
       </c>
       <c r="T10">
-        <v>0.2411230632146914</v>
+        <v>0.2211539528745162</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>32100.38974803704</v>
+        <v>38058.77058156273</v>
       </c>
       <c r="R11">
-        <v>32100.38974803704</v>
+        <v>228352.6234893764</v>
       </c>
       <c r="S11">
-        <v>0.09503937926515298</v>
+        <v>0.09090707165500747</v>
       </c>
       <c r="T11">
-        <v>0.09503937926515298</v>
+        <v>0.06325321849807376</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>424.0387933416247</v>
+        <v>642.1190577815868</v>
       </c>
       <c r="R12">
-        <v>424.0387933416247</v>
+        <v>5779.07152003428</v>
       </c>
       <c r="S12">
-        <v>0.001255448423519434</v>
+        <v>0.001533763763380077</v>
       </c>
       <c r="T12">
-        <v>0.001255448423519434</v>
+        <v>0.001600791214863051</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>3698.411251991677</v>
+        <v>4228.762559072818</v>
       </c>
       <c r="R13">
-        <v>3698.411251991677</v>
+        <v>38058.86303165535</v>
       </c>
       <c r="S13">
-        <v>0.01094985800532345</v>
+        <v>0.01010081027567078</v>
       </c>
       <c r="T13">
-        <v>0.01094985800532345</v>
+        <v>0.01054222869150244</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H14">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I14">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J14">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>3018.750438427906</v>
+        <v>3551.361178340987</v>
       </c>
       <c r="R14">
-        <v>3018.750438427906</v>
+        <v>31962.25060506888</v>
       </c>
       <c r="S14">
-        <v>0.008937591414825133</v>
+        <v>0.008482771255586882</v>
       </c>
       <c r="T14">
-        <v>0.008937591414825133</v>
+        <v>0.008853479282696608</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H15">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I15">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J15">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>3334.282540543708</v>
+        <v>3656.009496946694</v>
       </c>
       <c r="R15">
-        <v>3334.282540543708</v>
+        <v>32904.08547252024</v>
       </c>
       <c r="S15">
-        <v>0.009871784904645563</v>
+        <v>0.008732733933116819</v>
       </c>
       <c r="T15">
-        <v>0.009871784904645563</v>
+        <v>0.009114365651110836</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H16">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I16">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J16">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N16">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O16">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P16">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q16">
-        <v>1314.217473530352</v>
+        <v>1568.507127290305</v>
       </c>
       <c r="R16">
-        <v>1314.217473530352</v>
+        <v>9411.042763741831</v>
       </c>
       <c r="S16">
-        <v>0.003890993657215024</v>
+        <v>0.003746531683318366</v>
       </c>
       <c r="T16">
-        <v>0.003890993657215024</v>
+        <v>0.002606839961518428</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H17">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I17">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J17">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N17">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O17">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P17">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q17">
-        <v>1077.857200947727</v>
+        <v>2993.384788050229</v>
       </c>
       <c r="R17">
-        <v>1077.857200947727</v>
+        <v>26940.46309245205</v>
       </c>
       <c r="S17">
-        <v>0.003191203599663816</v>
+        <v>0.007149990429541566</v>
       </c>
       <c r="T17">
-        <v>0.003191203599663816</v>
+        <v>0.007462454218335004</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H18">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I18">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J18">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N18">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P18">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q18">
-        <v>9400.930439903734</v>
+        <v>19713.34344184904</v>
       </c>
       <c r="R18">
-        <v>9400.930439903734</v>
+        <v>177420.0909766413</v>
       </c>
       <c r="S18">
-        <v>0.02783326310167209</v>
+        <v>0.0470872363306476</v>
       </c>
       <c r="T18">
-        <v>0.02783326310167209</v>
+        <v>0.04914500919239807</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H19">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I19">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J19">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N19">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O19">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P19">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q19">
-        <v>7673.311850272705</v>
+        <v>16555.48203917969</v>
       </c>
       <c r="R19">
-        <v>7673.311850272705</v>
+        <v>148999.3383526172</v>
       </c>
       <c r="S19">
-        <v>0.02271831591086695</v>
+        <v>0.03954437752511081</v>
       </c>
       <c r="T19">
-        <v>0.02271831591086695</v>
+        <v>0.04127251774414136</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H20">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I20">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J20">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N20">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O20">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P20">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q20">
-        <v>8475.357686021729</v>
+        <v>17043.32410088642</v>
       </c>
       <c r="R20">
-        <v>8475.357686021729</v>
+        <v>153389.9169079778</v>
       </c>
       <c r="S20">
-        <v>0.02509292690375838</v>
+        <v>0.04070963569247224</v>
       </c>
       <c r="T20">
-        <v>0.02509292690375838</v>
+        <v>0.04248869919391613</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H21">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I21">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J21">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N21">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O21">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P21">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q21">
-        <v>3340.587676643991</v>
+        <v>7311.954563379725</v>
       </c>
       <c r="R21">
-        <v>3340.587676643991</v>
+        <v>43871.72738027835</v>
       </c>
       <c r="S21">
-        <v>0.009890452473041361</v>
+        <v>0.01746531396769113</v>
       </c>
       <c r="T21">
-        <v>0.009890452473041361</v>
+        <v>0.01215238045207645</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H22">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I22">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J22">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N22">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O22">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P22">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q22">
-        <v>158.254624001148</v>
+        <v>218.727691393016</v>
       </c>
       <c r="R22">
-        <v>158.254624001148</v>
+        <v>1312.366148358096</v>
       </c>
       <c r="S22">
-        <v>0.0004685432590994948</v>
+        <v>0.0005224523443758289</v>
       </c>
       <c r="T22">
-        <v>0.0004685432590994948</v>
+        <v>0.0003635227897236402</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H23">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I23">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J23">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N23">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P23">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q23">
-        <v>1380.276265464281</v>
+        <v>1440.46101853877</v>
       </c>
       <c r="R23">
-        <v>1380.276265464281</v>
+        <v>8642.76611123262</v>
       </c>
       <c r="S23">
-        <v>0.004086573419008738</v>
+        <v>0.003440681110492461</v>
       </c>
       <c r="T23">
-        <v>0.004086573419008738</v>
+        <v>0.002394028870384218</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H24">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I24">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J24">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N24">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O24">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P24">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q24">
-        <v>1126.621486260638</v>
+        <v>1209.714962401136</v>
       </c>
       <c r="R24">
-        <v>1126.621486260638</v>
+        <v>7258.289774406817</v>
       </c>
       <c r="S24">
-        <v>0.003335579647519474</v>
+        <v>0.002889521734115334</v>
       </c>
       <c r="T24">
-        <v>0.003335579647519474</v>
+        <v>0.002010531703150098</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H25">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I25">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J25">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N25">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O25">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P25">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q25">
-        <v>1244.380556809636</v>
+        <v>1245.361755405328</v>
       </c>
       <c r="R25">
-        <v>1244.380556809636</v>
+        <v>7472.170532431968</v>
       </c>
       <c r="S25">
-        <v>0.003684228030161072</v>
+        <v>0.002974667562958085</v>
       </c>
       <c r="T25">
-        <v>0.003684228030161072</v>
+        <v>0.00206977624395358</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H26">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I26">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J26">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N26">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O26">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P26">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q26">
-        <v>490.4763323428424</v>
+        <v>534.287121255939</v>
       </c>
       <c r="R26">
-        <v>490.4763323428424</v>
+        <v>2137.148485023756</v>
       </c>
       <c r="S26">
-        <v>0.001452149538868547</v>
+        <v>0.001276196705100372</v>
       </c>
       <c r="T26">
-        <v>0.001452149538868547</v>
+        <v>0.0005919858419858444</v>
       </c>
     </row>
   </sheetData>
